--- a/doc/Gr_A_schedule.xlsx
+++ b/doc/Gr_A_schedule.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryaa\Documents\SOBAL\20200801研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\プライベート\会社\在宅研修_202008\body_temperature_detection\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757AC8CE-1536-48D3-AA22-6AB3ED4A245A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABBAE6-59A7-4330-8645-2138700AAD8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="795" windowWidth="24420" windowHeight="14640" xr2:uid="{3A76AC0D-F3E2-4121-8628-6FFC0B01CC7F}"/>
+    <workbookView xWindow="14513" yWindow="4773" windowWidth="26434" windowHeight="17694" xr2:uid="{3A76AC0D-F3E2-4121-8628-6FFC0B01CC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="想定日程" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1623,6 +1625,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1651,42 +1689,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2005,24 +2007,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE1B0D-4181-4536-AAA4-D962C7FE6DF4}">
   <dimension ref="A1:AW90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" outlineLevelRow="1" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="49" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="3.71875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="49" width="4.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8"/>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B3" s="6" t="s">
         <v>80</v>
       </c>
@@ -2056,74 +2056,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B4" s="6"/>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:49" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="B6" s="75"/>
-      <c r="C6" s="77">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.8">
+      <c r="B6" s="62"/>
+      <c r="C6" s="64">
         <v>8</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="79">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="66">
         <v>9</v>
       </c>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="77"/>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="77"/>
-      <c r="AW6" s="80"/>
-    </row>
-    <row r="7" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="67"/>
+    </row>
+    <row r="7" spans="1:49" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A7" s="4"/>
-      <c r="B7" s="76"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="9">
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="20" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:49" s="20" customFormat="1" ht="18.350000000000001" thickTop="1" x14ac:dyDescent="0.8">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>27</v>
@@ -2319,7 +2319,7 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="19"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="18"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="18"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="18"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="18"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="18"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.8">
       <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="AV14" s="1"/>
       <c r="AW14" s="18"/>
     </row>
-    <row r="15" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:49" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="AV15" s="15"/>
       <c r="AW15" s="26"/>
     </row>
-    <row r="16" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -2709,7 +2709,7 @@
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
-      <c r="W16" s="82" t="s">
+      <c r="W16" s="61" t="s">
         <v>52</v>
       </c>
       <c r="X16" s="42"/>
@@ -2717,7 +2717,7 @@
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
       <c r="AB16" s="42"/>
-      <c r="AC16" s="82" t="s">
+      <c r="AC16" s="61" t="s">
         <v>64</v>
       </c>
       <c r="AD16" s="42"/>
@@ -2727,7 +2727,7 @@
       <c r="AH16" s="42"/>
       <c r="AI16" s="42"/>
       <c r="AJ16" s="42"/>
-      <c r="AK16" s="82" t="s">
+      <c r="AK16" s="61" t="s">
         <v>88</v>
       </c>
       <c r="AL16" s="42"/>
@@ -2743,7 +2743,7 @@
       <c r="AV16" s="41"/>
       <c r="AW16" s="41"/>
     </row>
-    <row r="17" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -2797,7 +2797,7 @@
       <c r="AV17" s="41"/>
       <c r="AW17" s="41"/>
     </row>
-    <row r="18" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -2805,7 +2805,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="61" t="s">
         <v>87</v>
       </c>
       <c r="J18" s="42"/>
@@ -2849,7 +2849,7 @@
       <c r="AV18" s="41"/>
       <c r="AW18" s="41"/>
     </row>
-    <row r="19" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -2899,7 +2899,7 @@
       <c r="AV19" s="41"/>
       <c r="AW19" s="41"/>
     </row>
-    <row r="20" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -2949,7 +2949,7 @@
       <c r="AV20" s="41"/>
       <c r="AW20" s="41"/>
     </row>
-    <row r="21" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B21" s="42" t="s">
         <v>86</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="AV21" s="41"/>
       <c r="AW21" s="41"/>
     </row>
-    <row r="22" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
@@ -3051,7 +3051,7 @@
       <c r="AV22" s="41"/>
       <c r="AW22" s="41"/>
     </row>
-    <row r="23" spans="2:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B23" s="41" t="s">
         <v>65</v>
       </c>
@@ -3103,36 +3103,36 @@
       <c r="AV23" s="41"/>
       <c r="AW23" s="41"/>
     </row>
-    <row r="24" spans="2:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B24" s="45"/>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="63" t="s">
+      <c r="H24" s="68"/>
+      <c r="I24" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="64"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="76"/>
       <c r="W24" s="42"/>
       <c r="X24" s="42"/>
       <c r="Y24" s="42"/>
@@ -3161,38 +3161,38 @@
       <c r="AV24" s="41"/>
       <c r="AW24" s="41"/>
     </row>
-    <row r="25" spans="2:49" s="20" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickTop="1" x14ac:dyDescent="0.8">
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="72" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74" t="s">
+      <c r="F25" s="70"/>
+      <c r="G25" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="65" t="s">
+      <c r="H25" s="71"/>
+      <c r="I25" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="66"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="78"/>
       <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
@@ -3221,34 +3221,34 @@
       <c r="AV25" s="41"/>
       <c r="AW25" s="41"/>
     </row>
-    <row r="26" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="67" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="68"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="80"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
       <c r="Y26" s="42"/>
@@ -3277,34 +3277,34 @@
       <c r="AV26" s="41"/>
       <c r="AW26" s="41"/>
     </row>
-    <row r="27" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B27" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="67" t="s">
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="68"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="80"/>
       <c r="W27" s="42"/>
       <c r="X27" s="42"/>
       <c r="Y27" s="42"/>
@@ -3333,34 +3333,34 @@
       <c r="AV27" s="41"/>
       <c r="AW27" s="41"/>
     </row>
-    <row r="28" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B28" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="67" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="68"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="80"/>
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
       <c r="Y28" s="42"/>
@@ -3389,34 +3389,34 @@
       <c r="AV28" s="41"/>
       <c r="AW28" s="41"/>
     </row>
-    <row r="29" spans="2:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B29" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="69" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="70"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="82"/>
       <c r="W29" s="42"/>
       <c r="X29" s="42"/>
       <c r="Y29" s="42"/>
@@ -3445,7 +3445,7 @@
       <c r="AV29" s="41"/>
       <c r="AW29" s="41"/>
     </row>
-    <row r="30" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -3495,7 +3495,7 @@
       <c r="AV30" s="41"/>
       <c r="AW30" s="41"/>
     </row>
-    <row r="31" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B31" s="49" t="s">
         <v>48</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="AV31" s="41"/>
       <c r="AW31" s="41"/>
     </row>
-    <row r="32" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B32" s="44" t="s">
         <v>49</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="AV32" s="41"/>
       <c r="AW32" s="41"/>
     </row>
-    <row r="33" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B33" s="44" t="s">
         <v>50</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="AV33" s="41"/>
       <c r="AW33" s="41"/>
     </row>
-    <row r="34" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -3700,7 +3700,7 @@
       <c r="AV34" s="41"/>
       <c r="AW34" s="41"/>
     </row>
-    <row r="35" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B35" s="49" t="s">
         <v>44</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="AV35" s="41"/>
       <c r="AW35" s="41"/>
     </row>
-    <row r="36" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B36" s="42" t="s">
         <v>67</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="AV36" s="41"/>
       <c r="AW36" s="41"/>
     </row>
-    <row r="37" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B37" s="42" t="s">
         <v>78</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="AV37" s="41"/>
       <c r="AW37" s="41"/>
     </row>
-    <row r="38" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B38" s="42" t="s">
         <v>79</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="AV38" s="41"/>
       <c r="AW38" s="41"/>
     </row>
-    <row r="39" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B39" s="42" t="s">
         <v>47</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="AV39" s="41"/>
       <c r="AW39" s="41"/>
     </row>
-    <row r="40" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B40" s="42" t="s">
         <v>82</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="AV40" s="41"/>
       <c r="AW40" s="41"/>
     </row>
-    <row r="41" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B41" s="42" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="AV41" s="41"/>
       <c r="AW41" s="41"/>
     </row>
-    <row r="42" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -4114,7 +4114,7 @@
       <c r="AV42" s="41"/>
       <c r="AW42" s="41"/>
     </row>
-    <row r="43" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -4164,10 +4164,10 @@
       <c r="AV43" s="41"/>
       <c r="AW43" s="41"/>
     </row>
-    <row r="44" spans="1:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A44" s="20"/>
     </row>
-    <row r="45" spans="1:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A45" s="20"/>
       <c r="B45" s="30" t="s">
         <v>26</v>
@@ -4314,7 +4314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="19.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.8">
       <c r="B46" s="36" t="s">
         <v>24</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="AV46" s="3"/>
       <c r="AW46" s="19"/>
     </row>
-    <row r="47" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B47" s="37" t="s">
         <v>12</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="AV47" s="1"/>
       <c r="AW47" s="18"/>
     </row>
-    <row r="48" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B48" s="37" t="s">
         <v>13</v>
       </c>
@@ -4432,13 +4432,13 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="1"/>
+      <c r="S48" s="8"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -4470,7 +4470,7 @@
       <c r="AV48" s="1"/>
       <c r="AW48" s="18"/>
     </row>
-    <row r="49" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="A49" s="17"/>
       <c r="B49" s="37" t="s">
         <v>14</v>
@@ -4523,7 +4523,7 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="18"/>
     </row>
-    <row r="50" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B50" s="37" t="s">
         <v>15</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="18"/>
     </row>
-    <row r="51" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B51" s="38" t="s">
         <v>16</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="AV51" s="1"/>
       <c r="AW51" s="18"/>
     </row>
-    <row r="52" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B52" s="38" t="s">
         <v>17</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="AV52" s="1"/>
       <c r="AW52" s="18"/>
     </row>
-    <row r="53" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B53" s="38" t="s">
         <v>18</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="AV53" s="1"/>
       <c r="AW53" s="18"/>
     </row>
-    <row r="54" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B54" s="38" t="s">
         <v>19</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="AV54" s="1"/>
       <c r="AW54" s="18"/>
     </row>
-    <row r="55" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B55" s="39" t="s">
         <v>20</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="AV55" s="1"/>
       <c r="AW55" s="18"/>
     </row>
-    <row r="56" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B56" s="39" t="s">
         <v>21</v>
       </c>
@@ -4889,7 +4889,7 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="18"/>
     </row>
-    <row r="57" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
       <c r="B57" s="39" t="s">
         <v>22</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="AV57" s="1"/>
       <c r="AW57" s="18"/>
     </row>
-    <row r="58" spans="1:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B58" s="40" t="s">
         <v>23</v>
       </c>
@@ -4993,8 +4993,8 @@
       <c r="AV58" s="15"/>
       <c r="AW58" s="26"/>
     </row>
-    <row r="60" spans="1:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85"/>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.8">
       <c r="C61" s="50" t="s">
         <v>38</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="K61" s="51"/>
       <c r="L61" s="52"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.8">
       <c r="C62" s="53"/>
       <c r="D62" s="54"/>
       <c r="E62" s="54"/>
@@ -5020,7 +5020,7 @@
       <c r="K62" s="54"/>
       <c r="L62" s="55"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.8">
       <c r="C63" s="53" t="s">
         <v>28</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="K63" s="54"/>
       <c r="L63" s="55"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.8">
       <c r="C64" s="53"/>
       <c r="D64" s="54" t="s">
         <v>29</v>
@@ -5048,7 +5048,7 @@
       <c r="K64" s="54"/>
       <c r="L64" s="55"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C65" s="53"/>
       <c r="D65" s="56" t="s">
         <v>30</v>
@@ -5062,7 +5062,7 @@
       <c r="K65" s="54"/>
       <c r="L65" s="55"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C66" s="53"/>
       <c r="D66" s="54"/>
       <c r="E66" s="54"/>
@@ -5074,7 +5074,7 @@
       <c r="K66" s="54"/>
       <c r="L66" s="55"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C67" s="53" t="s">
         <v>31</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="K67" s="54"/>
       <c r="L67" s="55"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C68" s="53"/>
       <c r="D68" s="56" t="s">
         <v>53</v>
@@ -5102,7 +5102,7 @@
       <c r="K68" s="54"/>
       <c r="L68" s="55"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C69" s="53"/>
       <c r="D69" s="54"/>
       <c r="E69" s="54"/>
@@ -5114,7 +5114,7 @@
       <c r="K69" s="54"/>
       <c r="L69" s="55"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C70" s="53" t="s">
         <v>32</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="K70" s="54"/>
       <c r="L70" s="55"/>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C71" s="53"/>
       <c r="D71" s="56" t="s">
         <v>54</v>
@@ -5142,7 +5142,7 @@
       <c r="K71" s="54"/>
       <c r="L71" s="55"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C72" s="53"/>
       <c r="D72" s="56" t="s">
         <v>55</v>
@@ -5156,7 +5156,7 @@
       <c r="K72" s="54"/>
       <c r="L72" s="55"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C73" s="53"/>
       <c r="D73" s="56" t="s">
         <v>35</v>
@@ -5170,7 +5170,7 @@
       <c r="K73" s="54"/>
       <c r="L73" s="55"/>
     </row>
-    <row r="74" spans="3:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:12" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="C74" s="53"/>
       <c r="D74" s="54"/>
       <c r="E74" s="54"/>
@@ -5182,7 +5182,7 @@
       <c r="K74" s="54"/>
       <c r="L74" s="55"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C75" s="53" t="s">
         <v>33</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="K75" s="54"/>
       <c r="L75" s="55"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C76" s="53"/>
       <c r="D76" s="56" t="s">
         <v>34</v>
@@ -5210,7 +5210,7 @@
       <c r="K76" s="54"/>
       <c r="L76" s="55"/>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C77" s="53"/>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
@@ -5222,7 +5222,7 @@
       <c r="K77" s="54"/>
       <c r="L77" s="55"/>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.8">
       <c r="C78" s="53" t="s">
         <v>36</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="K78" s="54"/>
       <c r="L78" s="55"/>
     </row>
-    <row r="79" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:12" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C79" s="57"/>
       <c r="D79" s="58" t="s">
         <v>37</v>
@@ -5250,69 +5250,58 @@
       <c r="K79" s="59"/>
       <c r="L79" s="60"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.8">
       <c r="B81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="C82" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.8">
       <c r="D83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="D84" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.8">
       <c r="C85" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.8">
       <c r="D86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.8">
       <c r="C87" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.8">
       <c r="C88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.8">
       <c r="C89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.8">
       <c r="C90" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:AG6"/>
-    <mergeCell ref="AH6:AW6"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
@@ -5329,6 +5318,17 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:AG6"/>
+    <mergeCell ref="AH6:AW6"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Gr_A_schedule.xlsx
+++ b/doc/Gr_A_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\プライベート\会社\在宅研修_202008\body_temperature_detection\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuchi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABBAE6-59A7-4330-8645-2138700AAD8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE9093-689A-4E46-824F-4A81697368EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14513" yWindow="4773" windowWidth="26434" windowHeight="17694" xr2:uid="{3A76AC0D-F3E2-4121-8628-6FFC0B01CC7F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{3A76AC0D-F3E2-4121-8628-6FFC0B01CC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="想定日程" sheetId="2" r:id="rId1"/>
@@ -1628,6 +1628,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1648,48 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,20 +2009,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" outlineLevelRow="1" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.71875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="49" width="4.609375" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="49" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8"/>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>80</v>
       </c>
@@ -2056,74 +2056,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:49" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.8">
-      <c r="B6" s="62"/>
-      <c r="C6" s="64">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="B6" s="76"/>
+      <c r="C6" s="78">
         <v>8</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="66">
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="80">
         <v>9</v>
       </c>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="67"/>
-    </row>
-    <row r="7" spans="1:49" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="81"/>
+    </row>
+    <row r="7" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
-      <c r="B7" s="63"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="9">
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="20" customFormat="1" ht="18.350000000000001" thickTop="1" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:49" s="20" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>27</v>
@@ -2319,7 +2319,7 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="19"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="18"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="18"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="18"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="18"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="18"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="AV14" s="1"/>
       <c r="AW14" s="18"/>
     </row>
-    <row r="15" spans="1:49" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="AV15" s="15"/>
       <c r="AW15" s="26"/>
     </row>
-    <row r="16" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -2743,7 +2743,7 @@
       <c r="AV16" s="41"/>
       <c r="AW16" s="41"/>
     </row>
-    <row r="17" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="17" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -2797,7 +2797,7 @@
       <c r="AV17" s="41"/>
       <c r="AW17" s="41"/>
     </row>
-    <row r="18" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="18" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -2849,7 +2849,7 @@
       <c r="AV18" s="41"/>
       <c r="AW18" s="41"/>
     </row>
-    <row r="19" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="19" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -2899,7 +2899,7 @@
       <c r="AV19" s="41"/>
       <c r="AW19" s="41"/>
     </row>
-    <row r="20" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="20" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -2949,7 +2949,7 @@
       <c r="AV20" s="41"/>
       <c r="AW20" s="41"/>
     </row>
-    <row r="21" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="21" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="42" t="s">
         <v>86</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="AV21" s="41"/>
       <c r="AW21" s="41"/>
     </row>
-    <row r="22" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="22" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
@@ -3051,7 +3051,7 @@
       <c r="AV22" s="41"/>
       <c r="AW22" s="41"/>
     </row>
-    <row r="23" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="23" spans="2:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="41" t="s">
         <v>65</v>
       </c>
@@ -3103,36 +3103,36 @@
       <c r="AV23" s="41"/>
       <c r="AW23" s="41"/>
     </row>
-    <row r="24" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="24" spans="2:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="45"/>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68" t="s">
+      <c r="D24" s="82"/>
+      <c r="E24" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68" t="s">
+      <c r="F24" s="82"/>
+      <c r="G24" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="75" t="s">
+      <c r="H24" s="82"/>
+      <c r="I24" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="76"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="65"/>
       <c r="W24" s="42"/>
       <c r="X24" s="42"/>
       <c r="Y24" s="42"/>
@@ -3161,38 +3161,38 @@
       <c r="AV24" s="41"/>
       <c r="AW24" s="41"/>
     </row>
-    <row r="25" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickTop="1" x14ac:dyDescent="0.8">
+    <row r="25" spans="2:49" s="20" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="69" t="s">
+      <c r="D25" s="74"/>
+      <c r="E25" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71" t="s">
+      <c r="F25" s="74"/>
+      <c r="G25" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="77" t="s">
+      <c r="H25" s="75"/>
+      <c r="I25" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="78"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="67"/>
       <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
@@ -3221,7 +3221,7 @@
       <c r="AV25" s="41"/>
       <c r="AW25" s="41"/>
     </row>
-    <row r="26" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="26" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="47" t="s">
         <v>13</v>
       </c>
@@ -3233,22 +3233,22 @@
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="79" t="s">
+      <c r="I26" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="80"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="69"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
       <c r="Y26" s="42"/>
@@ -3277,7 +3277,7 @@
       <c r="AV26" s="41"/>
       <c r="AW26" s="41"/>
     </row>
-    <row r="27" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="27" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="47" t="s">
         <v>14</v>
       </c>
@@ -3289,22 +3289,22 @@
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="79" t="s">
+      <c r="I27" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="80"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="69"/>
       <c r="W27" s="42"/>
       <c r="X27" s="42"/>
       <c r="Y27" s="42"/>
@@ -3333,7 +3333,7 @@
       <c r="AV27" s="41"/>
       <c r="AW27" s="41"/>
     </row>
-    <row r="28" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="28" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="47" t="s">
         <v>15</v>
       </c>
@@ -3345,22 +3345,22 @@
       <c r="F28" s="72"/>
       <c r="G28" s="72"/>
       <c r="H28" s="72"/>
-      <c r="I28" s="79" t="s">
+      <c r="I28" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="80"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="69"/>
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
       <c r="Y28" s="42"/>
@@ -3389,34 +3389,34 @@
       <c r="AV28" s="41"/>
       <c r="AW28" s="41"/>
     </row>
-    <row r="29" spans="2:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="29" spans="2:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="81" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="82"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="71"/>
       <c r="W29" s="42"/>
       <c r="X29" s="42"/>
       <c r="Y29" s="42"/>
@@ -3445,7 +3445,7 @@
       <c r="AV29" s="41"/>
       <c r="AW29" s="41"/>
     </row>
-    <row r="30" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="30" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -3495,7 +3495,7 @@
       <c r="AV30" s="41"/>
       <c r="AW30" s="41"/>
     </row>
-    <row r="31" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="31" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="49" t="s">
         <v>48</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="AV31" s="41"/>
       <c r="AW31" s="41"/>
     </row>
-    <row r="32" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="32" spans="2:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="44" t="s">
         <v>49</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="AV32" s="41"/>
       <c r="AW32" s="41"/>
     </row>
-    <row r="33" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="33" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="44" t="s">
         <v>50</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="AV33" s="41"/>
       <c r="AW33" s="41"/>
     </row>
-    <row r="34" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="34" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -3700,7 +3700,7 @@
       <c r="AV34" s="41"/>
       <c r="AW34" s="41"/>
     </row>
-    <row r="35" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="35" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="49" t="s">
         <v>44</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="AV35" s="41"/>
       <c r="AW35" s="41"/>
     </row>
-    <row r="36" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="36" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="42" t="s">
         <v>67</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="AV36" s="41"/>
       <c r="AW36" s="41"/>
     </row>
-    <row r="37" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="37" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="42" t="s">
         <v>78</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="AV37" s="41"/>
       <c r="AW37" s="41"/>
     </row>
-    <row r="38" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="38" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="42" t="s">
         <v>79</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="AV38" s="41"/>
       <c r="AW38" s="41"/>
     </row>
-    <row r="39" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="39" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="42" t="s">
         <v>47</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="AV39" s="41"/>
       <c r="AW39" s="41"/>
     </row>
-    <row r="40" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="40" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="42" t="s">
         <v>82</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="AV40" s="41"/>
       <c r="AW40" s="41"/>
     </row>
-    <row r="41" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="41" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="42" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="AV41" s="41"/>
       <c r="AW41" s="41"/>
     </row>
-    <row r="42" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="42" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -4114,7 +4114,7 @@
       <c r="AV42" s="41"/>
       <c r="AW42" s="41"/>
     </row>
-    <row r="43" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="43" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -4164,10 +4164,10 @@
       <c r="AV43" s="41"/>
       <c r="AW43" s="41"/>
     </row>
-    <row r="44" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="20"/>
     </row>
-    <row r="45" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
       <c r="B45" s="30" t="s">
         <v>26</v>
@@ -4314,7 +4314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.8">
+    <row r="46" spans="1:49" ht="19.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B46" s="36" t="s">
         <v>24</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="AV46" s="3"/>
       <c r="AW46" s="19"/>
     </row>
-    <row r="47" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="47" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B47" s="37" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="1"/>
+      <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="1"/>
@@ -4418,7 +4418,7 @@
       <c r="AV47" s="1"/>
       <c r="AW47" s="18"/>
     </row>
-    <row r="48" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="48" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B48" s="37" t="s">
         <v>13</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="AV48" s="1"/>
       <c r="AW48" s="18"/>
     </row>
-    <row r="49" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="49" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="37" t="s">
         <v>14</v>
@@ -4523,7 +4523,7 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="18"/>
     </row>
-    <row r="50" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="50" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B50" s="37" t="s">
         <v>15</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="18"/>
     </row>
-    <row r="51" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="51" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B51" s="38" t="s">
         <v>16</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="AV51" s="1"/>
       <c r="AW51" s="18"/>
     </row>
-    <row r="52" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="52" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B52" s="38" t="s">
         <v>17</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="AV52" s="1"/>
       <c r="AW52" s="18"/>
     </row>
-    <row r="53" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="53" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B53" s="38" t="s">
         <v>18</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="AV53" s="1"/>
       <c r="AW53" s="18"/>
     </row>
-    <row r="54" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="54" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B54" s="38" t="s">
         <v>19</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="AV54" s="1"/>
       <c r="AW54" s="18"/>
     </row>
-    <row r="55" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="55" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B55" s="39" t="s">
         <v>20</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="AV55" s="1"/>
       <c r="AW55" s="18"/>
     </row>
-    <row r="56" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="56" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B56" s="39" t="s">
         <v>21</v>
       </c>
@@ -4889,7 +4889,7 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="18"/>
     </row>
-    <row r="57" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.8">
+    <row r="57" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B57" s="39" t="s">
         <v>22</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="AV57" s="1"/>
       <c r="AW57" s="18"/>
     </row>
-    <row r="58" spans="1:49" ht="18.350000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="40" t="s">
         <v>23</v>
       </c>
@@ -4993,8 +4993,8 @@
       <c r="AV58" s="15"/>
       <c r="AW58" s="26"/>
     </row>
-    <row r="60" spans="1:49" s="20" customFormat="1" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85"/>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="60" spans="1:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C61" s="50" t="s">
         <v>38</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="K61" s="51"/>
       <c r="L61" s="52"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C62" s="53"/>
       <c r="D62" s="54"/>
       <c r="E62" s="54"/>
@@ -5020,7 +5020,7 @@
       <c r="K62" s="54"/>
       <c r="L62" s="55"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C63" s="53" t="s">
         <v>28</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="K63" s="54"/>
       <c r="L63" s="55"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.8">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C64" s="53"/>
       <c r="D64" s="54" t="s">
         <v>29</v>
@@ -5048,7 +5048,7 @@
       <c r="K64" s="54"/>
       <c r="L64" s="55"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C65" s="53"/>
       <c r="D65" s="56" t="s">
         <v>30</v>
@@ -5062,7 +5062,7 @@
       <c r="K65" s="54"/>
       <c r="L65" s="55"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C66" s="53"/>
       <c r="D66" s="54"/>
       <c r="E66" s="54"/>
@@ -5074,7 +5074,7 @@
       <c r="K66" s="54"/>
       <c r="L66" s="55"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C67" s="53" t="s">
         <v>31</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="K67" s="54"/>
       <c r="L67" s="55"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C68" s="53"/>
       <c r="D68" s="56" t="s">
         <v>53</v>
@@ -5102,7 +5102,7 @@
       <c r="K68" s="54"/>
       <c r="L68" s="55"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C69" s="53"/>
       <c r="D69" s="54"/>
       <c r="E69" s="54"/>
@@ -5114,7 +5114,7 @@
       <c r="K69" s="54"/>
       <c r="L69" s="55"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C70" s="53" t="s">
         <v>32</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="K70" s="54"/>
       <c r="L70" s="55"/>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C71" s="53"/>
       <c r="D71" s="56" t="s">
         <v>54</v>
@@ -5142,7 +5142,7 @@
       <c r="K71" s="54"/>
       <c r="L71" s="55"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C72" s="53"/>
       <c r="D72" s="56" t="s">
         <v>55</v>
@@ -5156,7 +5156,7 @@
       <c r="K72" s="54"/>
       <c r="L72" s="55"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C73" s="53"/>
       <c r="D73" s="56" t="s">
         <v>35</v>
@@ -5170,7 +5170,7 @@
       <c r="K73" s="54"/>
       <c r="L73" s="55"/>
     </row>
-    <row r="74" spans="3:12" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="74" spans="3:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C74" s="53"/>
       <c r="D74" s="54"/>
       <c r="E74" s="54"/>
@@ -5182,7 +5182,7 @@
       <c r="K74" s="54"/>
       <c r="L74" s="55"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C75" s="53" t="s">
         <v>33</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="K75" s="54"/>
       <c r="L75" s="55"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C76" s="53"/>
       <c r="D76" s="56" t="s">
         <v>34</v>
@@ -5210,7 +5210,7 @@
       <c r="K76" s="54"/>
       <c r="L76" s="55"/>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C77" s="53"/>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
@@ -5222,7 +5222,7 @@
       <c r="K77" s="54"/>
       <c r="L77" s="55"/>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.8">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C78" s="53" t="s">
         <v>36</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="K78" s="54"/>
       <c r="L78" s="55"/>
     </row>
-    <row r="79" spans="3:12" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="79" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C79" s="57"/>
       <c r="D79" s="58" t="s">
         <v>37</v>
@@ -5250,58 +5250,69 @@
       <c r="K79" s="59"/>
       <c r="L79" s="60"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.8">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="82" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C82" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.8">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="84" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D84" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.8">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.8">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="87" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C87" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.8">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.8">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.8">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:AG6"/>
+    <mergeCell ref="AH6:AW6"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
@@ -5318,17 +5329,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:AG6"/>
-    <mergeCell ref="AH6:AW6"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Gr_A_schedule.xlsx
+++ b/doc/Gr_A_schedule.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuchi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maryaa\Documents\SOBAL\20200801研修\工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE9093-689A-4E46-824F-4A81697368EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9AFE8F-3F34-4D39-A510-E934105A0E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{3A76AC0D-F3E2-4121-8628-6FFC0B01CC7F}"/>
+    <workbookView xWindow="345" yWindow="690" windowWidth="24150" windowHeight="14640" xr2:uid="{3A76AC0D-F3E2-4121-8628-6FFC0B01CC7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="想定日程" sheetId="2" r:id="rId1"/>
+    <sheet name="想定日程" sheetId="3" r:id="rId1"/>
+    <sheet name="実日程" sheetId="2" r:id="rId2"/>
+    <sheet name="概略工程" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
@@ -822,6 +816,158 @@
     <t>▲納期</t>
     <rPh sb="1" eb="3">
       <t>ノウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲デモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲デモ準備(佐藤)</t>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲カメラ表示仕様</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲サーモ表示仕様</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲温度表示仕様</t>
+    <rPh sb="1" eb="3">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1週</t>
+    <rPh sb="1" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2週</t>
+    <rPh sb="1" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3週</t>
+    <rPh sb="1" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4週</t>
+    <rPh sb="1" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人月80万÷20×15＝60万</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理85万×0.2＝</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト＋調整</t>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主担当</t>
+  </si>
+  <si>
+    <t>▲要件定義書再レビュー</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -830,7 +976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,8 +1009,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,8 +1060,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1435,13 +1623,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1628,18 +1936,144 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1658,38 +2092,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,172 +2444,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE1B0D-4181-4536-AAA4-D962C7FE6DF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ABBC7E-D36D-4AA1-AFAF-D996FEFF0C4D}">
   <dimension ref="A1:AW90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="49" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="49" width="4.625" style="20" customWidth="1"/>
+    <col min="50" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="20">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="20">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="20">
         <f>C3*E3</f>
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="20">
         <f>G3*6</f>
         <v>480</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="B5" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="B6" s="76"/>
-      <c r="C6" s="78">
+      <c r="B6" s="81"/>
+      <c r="C6" s="83">
         <v>8</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="80">
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="85">
         <v>9</v>
       </c>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="78"/>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78"/>
-      <c r="AW6" s="81"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="86"/>
     </row>
     <row r="7" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="9">
+      <c r="A7" s="21"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="70">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="70">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="71">
         <v>3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="71">
         <v>4</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="71">
         <v>5</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="71">
         <v>6</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="71">
         <v>7</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="70">
         <v>8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="70">
         <v>9</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="70">
         <v>10</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="71">
         <v>11</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="71">
         <v>12</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="71">
         <v>13</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="71">
         <v>14</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="70">
         <v>15</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="70">
         <v>16</v>
       </c>
       <c r="S7" s="10">
@@ -2229,44 +2669,44 @@
       <c r="AK7" s="10">
         <v>4</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="9">
         <v>5</v>
       </c>
-      <c r="AM7" s="23">
+      <c r="AM7" s="62">
         <v>6</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7" s="10">
         <v>7</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7" s="10">
         <v>8</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP7" s="10">
         <v>9</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7" s="10">
         <v>10</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AR7" s="10">
         <v>11</v>
       </c>
-      <c r="AS7" s="11">
+      <c r="AS7" s="9">
         <v>12</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AT7" s="9">
         <v>13</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AU7" s="10">
         <v>14</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7" s="10">
         <v>15</v>
       </c>
-      <c r="AW7" s="27">
+      <c r="AW7" s="63">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="20" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:49" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>27</v>
@@ -2683,7 +3123,2204 @@
       <c r="AV15" s="15"/>
       <c r="AW15" s="26"/>
     </row>
-    <row r="16" spans="1:49" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="F16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK16" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="F17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="I18" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B21" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="64"/>
+      <c r="C24" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="87"/>
+      <c r="I24" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="89"/>
+    </row>
+    <row r="25" spans="2:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="94"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="97"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="97"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="97"/>
+    </row>
+    <row r="29" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="101"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B31" s="67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B35" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B36" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B37" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B38" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B40" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="B41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="44" spans="2:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="2:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="D45" s="31">
+        <v>2</v>
+      </c>
+      <c r="E45" s="32">
+        <v>3</v>
+      </c>
+      <c r="F45" s="32">
+        <v>4</v>
+      </c>
+      <c r="G45" s="32">
+        <v>5</v>
+      </c>
+      <c r="H45" s="32">
+        <v>6</v>
+      </c>
+      <c r="I45" s="32">
+        <v>7</v>
+      </c>
+      <c r="J45" s="31">
+        <v>8</v>
+      </c>
+      <c r="K45" s="31">
+        <v>9</v>
+      </c>
+      <c r="L45" s="31">
+        <v>10</v>
+      </c>
+      <c r="M45" s="32">
+        <v>11</v>
+      </c>
+      <c r="N45" s="32">
+        <v>12</v>
+      </c>
+      <c r="O45" s="32">
+        <v>13</v>
+      </c>
+      <c r="P45" s="32">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="31">
+        <v>15</v>
+      </c>
+      <c r="R45" s="31">
+        <v>16</v>
+      </c>
+      <c r="S45" s="32">
+        <v>17</v>
+      </c>
+      <c r="T45" s="32">
+        <v>18</v>
+      </c>
+      <c r="U45" s="32">
+        <v>19</v>
+      </c>
+      <c r="V45" s="32">
+        <v>20</v>
+      </c>
+      <c r="W45" s="32">
+        <v>21</v>
+      </c>
+      <c r="X45" s="31">
+        <v>22</v>
+      </c>
+      <c r="Y45" s="31">
+        <v>23</v>
+      </c>
+      <c r="Z45" s="32">
+        <v>24</v>
+      </c>
+      <c r="AA45" s="32">
+        <v>25</v>
+      </c>
+      <c r="AB45" s="32">
+        <v>26</v>
+      </c>
+      <c r="AC45" s="32">
+        <v>27</v>
+      </c>
+      <c r="AD45" s="32">
+        <v>28</v>
+      </c>
+      <c r="AE45" s="31">
+        <v>29</v>
+      </c>
+      <c r="AF45" s="31">
+        <v>30</v>
+      </c>
+      <c r="AG45" s="32">
+        <v>31</v>
+      </c>
+      <c r="AH45" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="32">
+        <v>2</v>
+      </c>
+      <c r="AJ45" s="32">
+        <v>3</v>
+      </c>
+      <c r="AK45" s="32">
+        <v>4</v>
+      </c>
+      <c r="AL45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AM45" s="31">
+        <v>6</v>
+      </c>
+      <c r="AN45" s="32">
+        <v>7</v>
+      </c>
+      <c r="AO45" s="32">
+        <v>8</v>
+      </c>
+      <c r="AP45" s="32">
+        <v>9</v>
+      </c>
+      <c r="AQ45" s="32">
+        <v>10</v>
+      </c>
+      <c r="AR45" s="32">
+        <v>11</v>
+      </c>
+      <c r="AS45" s="31">
+        <v>12</v>
+      </c>
+      <c r="AT45" s="31">
+        <v>13</v>
+      </c>
+      <c r="AU45" s="32">
+        <v>14</v>
+      </c>
+      <c r="AV45" s="32">
+        <v>15</v>
+      </c>
+      <c r="AW45" s="68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:49" ht="19.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="19"/>
+    </row>
+    <row r="47" spans="2:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="18"/>
+    </row>
+    <row r="48" spans="2:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="18"/>
+    </row>
+    <row r="49" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="17"/>
+      <c r="B49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="18"/>
+    </row>
+    <row r="50" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="18"/>
+    </row>
+    <row r="51" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="18"/>
+    </row>
+    <row r="52" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="18"/>
+    </row>
+    <row r="53" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="18"/>
+    </row>
+    <row r="54" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="18"/>
+    </row>
+    <row r="55" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="18"/>
+    </row>
+    <row r="56" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="18"/>
+    </row>
+    <row r="57" spans="1:49" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="18"/>
+    </row>
+    <row r="58" spans="1:49" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="15"/>
+      <c r="AI58" s="15"/>
+      <c r="AJ58" s="15"/>
+      <c r="AK58" s="15"/>
+      <c r="AL58" s="14"/>
+      <c r="AM58" s="14"/>
+      <c r="AN58" s="15"/>
+      <c r="AO58" s="15"/>
+      <c r="AP58" s="15"/>
+      <c r="AQ58" s="15"/>
+      <c r="AR58" s="15"/>
+      <c r="AS58" s="15"/>
+      <c r="AT58" s="15"/>
+      <c r="AU58" s="15"/>
+      <c r="AV58" s="15"/>
+      <c r="AW58" s="26"/>
+    </row>
+    <row r="60" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="C61" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="52"/>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="C62" s="53"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="55"/>
+    </row>
+    <row r="63" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="C63" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="55"/>
+    </row>
+    <row r="64" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="C64" s="53"/>
+      <c r="D64" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="55"/>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C65" s="53"/>
+      <c r="D65" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="55"/>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C66" s="53"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="55"/>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C67" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="55"/>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C68" s="53"/>
+      <c r="D68" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="55"/>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C69" s="53"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="55"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C70" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="55"/>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C71" s="53"/>
+      <c r="D71" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="55"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C72" s="53"/>
+      <c r="D72" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="55"/>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C73" s="53"/>
+      <c r="D73" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="55"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C74" s="53"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="55"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C75" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="55"/>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C76" s="53"/>
+      <c r="D76" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="55"/>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C77" s="53"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="55"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C78" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="55"/>
+    </row>
+    <row r="79" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="57"/>
+      <c r="D79" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="60"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B81" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C82" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D83" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D84" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C85" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D86" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C87" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C88" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C89" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C90" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:V29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:V27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:V28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:V25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:V26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:AG6"/>
+    <mergeCell ref="AH6:AW6"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:V24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE1B0D-4181-4536-AAA4-D962C7FE6DF4}">
+  <dimension ref="A1:XFD90"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="49" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49 16384:16384" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>C3*E3</f>
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f>G3*6</f>
+        <v>384</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49 16384:16384" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:49 16384:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B6" s="81"/>
+      <c r="C6" s="83">
+        <v>8</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="85">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="86"/>
+    </row>
+    <row r="7" spans="1:49 16384:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70">
+        <v>2</v>
+      </c>
+      <c r="E7" s="71">
+        <v>3</v>
+      </c>
+      <c r="F7" s="71">
+        <v>4</v>
+      </c>
+      <c r="G7" s="71">
+        <v>5</v>
+      </c>
+      <c r="H7" s="71">
+        <v>6</v>
+      </c>
+      <c r="I7" s="71">
+        <v>7</v>
+      </c>
+      <c r="J7" s="70">
+        <v>8</v>
+      </c>
+      <c r="K7" s="70">
+        <v>9</v>
+      </c>
+      <c r="L7" s="70">
+        <v>10</v>
+      </c>
+      <c r="M7" s="71">
+        <v>11</v>
+      </c>
+      <c r="N7" s="71">
+        <v>12</v>
+      </c>
+      <c r="O7" s="71">
+        <v>13</v>
+      </c>
+      <c r="P7" s="71">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="70">
+        <v>15</v>
+      </c>
+      <c r="R7" s="70">
+        <v>16</v>
+      </c>
+      <c r="S7" s="10">
+        <v>17</v>
+      </c>
+      <c r="T7" s="10">
+        <v>18</v>
+      </c>
+      <c r="U7" s="10">
+        <v>19</v>
+      </c>
+      <c r="V7" s="10">
+        <v>20</v>
+      </c>
+      <c r="W7" s="10">
+        <v>21</v>
+      </c>
+      <c r="X7" s="9">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>23</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>24</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>26</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="23">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>7</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>11</v>
+      </c>
+      <c r="AS7" s="11">
+        <v>12</v>
+      </c>
+      <c r="AT7" s="11">
+        <v>13</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>14</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>15</v>
+      </c>
+      <c r="AW7" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49 16384:16384" s="20" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="19"/>
+    </row>
+    <row r="9" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="18"/>
+    </row>
+    <row r="10" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="18"/>
+      <c r="XFD10" s="66"/>
+    </row>
+    <row r="11" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="18"/>
+    </row>
+    <row r="12" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="18"/>
+    </row>
+    <row r="13" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="18"/>
+    </row>
+    <row r="14" spans="1:49 16384:16384" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="18"/>
+    </row>
+    <row r="15" spans="1:49 16384:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="26"/>
+    </row>
+    <row r="16" spans="1:49 16384:16384" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -2709,27 +5346,25 @@
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
-      <c r="W16" s="61" t="s">
-        <v>52</v>
-      </c>
+      <c r="W16" s="61"/>
       <c r="X16" s="42"/>
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="61" t="s">
+      <c r="AA16" s="61" t="s">
         <v>64</v>
       </c>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
       <c r="AD16" s="42"/>
       <c r="AE16" s="42"/>
       <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
+      <c r="AG16" s="61" t="s">
+        <v>88</v>
+      </c>
       <c r="AH16" s="42"/>
       <c r="AI16" s="42"/>
       <c r="AJ16" s="42"/>
-      <c r="AK16" s="61" t="s">
-        <v>88</v>
-      </c>
+      <c r="AK16" s="61"/>
       <c r="AL16" s="42"/>
       <c r="AM16" s="42"/>
       <c r="AN16" s="41"/>
@@ -2765,7 +5400,9 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
+      <c r="S17" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
@@ -2775,7 +5412,9 @@
       <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
+      <c r="AC17" s="61" t="s">
+        <v>89</v>
+      </c>
       <c r="AD17" s="42"/>
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
@@ -2817,7 +5456,9 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+      <c r="S18" s="42" t="s">
+        <v>92</v>
+      </c>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
@@ -2826,7 +5467,9 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
+      <c r="AB18" s="42" t="s">
+        <v>90</v>
+      </c>
       <c r="AC18" s="42"/>
       <c r="AD18" s="42"/>
       <c r="AE18" s="42"/>
@@ -2867,7 +5510,9 @@
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="S19" s="42" t="s">
+        <v>93</v>
+      </c>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
@@ -2918,7 +5563,9 @@
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
+      <c r="T20" s="61" t="s">
+        <v>106</v>
+      </c>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
       <c r="W20" s="42"/>
@@ -2969,7 +5616,9 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
+      <c r="S21" s="61" t="s">
+        <v>52</v>
+      </c>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="42"/>
@@ -3105,34 +5754,34 @@
     </row>
     <row r="24" spans="2:49" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="45"/>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82" t="s">
+      <c r="D24" s="87"/>
+      <c r="E24" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82" t="s">
+      <c r="F24" s="87"/>
+      <c r="G24" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="64" t="s">
+      <c r="H24" s="87"/>
+      <c r="I24" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="65"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="89"/>
       <c r="W24" s="42"/>
       <c r="X24" s="42"/>
       <c r="Y24" s="42"/>
@@ -3165,34 +5814,34 @@
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="73" t="s">
+      <c r="D25" s="103"/>
+      <c r="E25" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75" t="s">
+      <c r="F25" s="103"/>
+      <c r="G25" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="66" t="s">
+      <c r="H25" s="104"/>
+      <c r="I25" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="67"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="109"/>
       <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
@@ -3225,30 +5874,30 @@
       <c r="B26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="68" t="s">
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="69"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="111"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
       <c r="Y26" s="42"/>
@@ -3281,30 +5930,30 @@
       <c r="B27" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="68" t="s">
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="69"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="111"/>
       <c r="W27" s="42"/>
       <c r="X27" s="42"/>
       <c r="Y27" s="42"/>
@@ -3337,30 +5986,30 @@
       <c r="B28" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="68" t="s">
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="69"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="111"/>
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
       <c r="Y28" s="42"/>
@@ -3393,30 +6042,30 @@
       <c r="B29" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="70" t="s">
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="71"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="113"/>
       <c r="W29" s="42"/>
       <c r="X29" s="42"/>
       <c r="Y29" s="42"/>
@@ -4383,7 +7032,7 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
+      <c r="P47" s="1"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="1"/>
@@ -4432,13 +7081,13 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
+      <c r="M48" s="1"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
+      <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -5302,17 +7951,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:AG6"/>
-    <mergeCell ref="AH6:AW6"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
@@ -5329,6 +7967,268 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:AG6"/>
+    <mergeCell ref="AH6:AW6"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23186D16-C04A-48E9-A475-321E75A62659}">
+  <dimension ref="A2:W21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="10" width="4.875" style="20" customWidth="1"/>
+    <col min="11" max="18" width="4.875" customWidth="1"/>
+    <col min="19" max="19" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="114"/>
+      <c r="C3" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="119"/>
+      <c r="U3" s="20">
+        <v>85</v>
+      </c>
+      <c r="V3" s="20">
+        <f>U3/20*15</f>
+        <v>63.75</v>
+      </c>
+      <c r="W3" s="20">
+        <f>U3*0.15</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="115"/>
+      <c r="C4" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="U4">
+        <v>80</v>
+      </c>
+      <c r="V4">
+        <f>U4*0.8</f>
+        <v>64</v>
+      </c>
+      <c r="W4">
+        <f>U4*0.15</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="74"/>
+      <c r="U5">
+        <v>75</v>
+      </c>
+      <c r="V5" s="20">
+        <f>U5/20*15</f>
+        <v>56.25</v>
+      </c>
+      <c r="W5" s="20">
+        <f>U5*0.2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="74"/>
+      <c r="U6">
+        <v>80</v>
+      </c>
+      <c r="V6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="79"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="U13">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="U14">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="U15">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="U16">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="17" spans="21:23" x14ac:dyDescent="0.4">
+      <c r="U17">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="18" spans="21:23" x14ac:dyDescent="0.4">
+      <c r="U18">
+        <v>1999</v>
+      </c>
+      <c r="W18">
+        <f>W19/1.05</f>
+        <v>952380.95238095231</v>
+      </c>
+    </row>
+    <row r="19" spans="21:23" x14ac:dyDescent="0.4">
+      <c r="U19">
+        <v>850000</v>
+      </c>
+      <c r="V19">
+        <f>SUM(U13:U18)</f>
+        <v>20531</v>
+      </c>
+      <c r="W19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="21:23" x14ac:dyDescent="0.4">
+      <c r="U21">
+        <f>SUM(U13:U19)</f>
+        <v>870531</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
